--- a/Nowcasts/2025Q4/tables/nowcasts_2025Q4_Nr5_Np3_Nj1.xlsx
+++ b/Nowcasts/2025Q4/tables/nowcasts_2025Q4_Nr5_Np3_Nj1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Row</t>
   </si>
@@ -109,6 +109,57 @@
   </si>
   <si>
     <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
+  </si>
+  <si>
+    <t>2025-10-30</t>
+  </si>
+  <si>
+    <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>2025-11-30</t>
+  </si>
+  <si>
+    <t>2025-12-15</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -188,59 +239,59 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
-    <col min="2" max="2" width="12.64453125" customWidth="true"/>
+    <col min="2" max="2" width="13.24609375" customWidth="true"/>
     <col min="3" max="3" width="14.24609375" customWidth="true"/>
     <col min="4" max="4" width="14.24609375" customWidth="true"/>
-    <col min="5" max="5" width="15.24609375" customWidth="true"/>
+    <col min="5" max="5" width="14.64453125" customWidth="true"/>
     <col min="6" max="6" width="15.24609375" customWidth="true"/>
-    <col min="7" max="7" width="15.64453125" customWidth="true"/>
-    <col min="8" max="8" width="16.24609375" customWidth="true"/>
-    <col min="9" max="9" width="15.24609375" customWidth="true"/>
-    <col min="10" max="10" width="15.24609375" customWidth="true"/>
-    <col min="11" max="11" width="15.64453125" customWidth="true"/>
+    <col min="7" max="7" width="15.24609375" customWidth="true"/>
+    <col min="8" max="8" width="15.24609375" customWidth="true"/>
+    <col min="9" max="9" width="13.64453125" customWidth="true"/>
+    <col min="10" max="10" width="15.046875" customWidth="true"/>
+    <col min="11" max="11" width="14.64453125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B2" s="0">
-        <v>0.20690056602202545</v>
+        <v>0.26486052413425915</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -272,177 +323,177 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B3" s="0">
-        <v>0.23403718818332203</v>
+        <v>0.31647025403381968</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>0.045325129937101791</v>
+        <v>-0.037495105474981416</v>
       </c>
       <c r="E3" s="0">
-        <v>-0.0050494556844907865</v>
+        <v>0.026333433801879504</v>
       </c>
       <c r="F3" s="0">
-        <v>-0.01283090184864613</v>
+        <v>0.006054136552436775</v>
       </c>
       <c r="G3" s="0">
-        <v>0.0012768812945756116</v>
+        <v>0.015189404467814869</v>
       </c>
       <c r="H3" s="0">
-        <v>-1.58510726243127e-06</v>
+        <v>0.0016231119335251476</v>
       </c>
       <c r="I3" s="0">
-        <v>-0.0021774268835334687</v>
+        <v>0.010946847638869578</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>0.00059398045355199547</v>
+        <v>0.028957900980016049</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B4" s="0">
-        <v>0.45855062528692248</v>
+        <v>0.45961393516440963</v>
       </c>
       <c r="C4" s="0">
-        <v>0.23059119330180627</v>
+        <v>-0.039576987115728011</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>0.0023174933245759038</v>
+        <v>-0.018273712829865982</v>
       </c>
       <c r="F4" s="0">
-        <v>-0.0015442437830625747</v>
+        <v>-0.0012803036082484915</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>-0.00024045805848076345</v>
+        <v>-0.0037369405825890744</v>
       </c>
       <c r="I4" s="0">
-        <v>-0.0055784031254606792</v>
+        <v>0.1889223454148013</v>
       </c>
       <c r="J4" s="0">
-        <v>-0.0033950680891051792</v>
+        <v>0.012371310243808883</v>
       </c>
       <c r="K4" s="0">
-        <v>0.0023629235333274823</v>
+        <v>0.0047179696084113099</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B5" s="0">
-        <v>0.37618873775568912</v>
+        <v>0.43768886758501979</v>
       </c>
       <c r="C5" s="0">
         <v>0</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.11184325830027778</v>
+        <v>0.023575150151803725</v>
       </c>
       <c r="E5" s="0">
-        <v>0.0042423790028218696</v>
+        <v>0.0076648942810930622</v>
       </c>
       <c r="F5" s="0">
-        <v>-0.003764926702835571</v>
+        <v>-0.074392496555192839</v>
       </c>
       <c r="G5" s="0">
-        <v>0.0049368392928697174</v>
+        <v>-0.0079697139013196697</v>
       </c>
       <c r="H5" s="0">
-        <v>0.0037114746946908675</v>
+        <v>-0.0045929548051328534</v>
       </c>
       <c r="I5" s="0">
-        <v>0.0099598934631781825</v>
+        <v>0.015270551176550162</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>0.010395711018319376</v>
+        <v>0.018519502072808558</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B6" s="0">
-        <v>0.31001430793646279</v>
+        <v>-0.028982817203495714</v>
       </c>
       <c r="C6" s="0">
-        <v>-0.12299009341332939</v>
+        <v>-0.33832142350288785</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>0.0019003776680288549</v>
+        <v>-0.042313820523547395</v>
       </c>
       <c r="F6" s="0">
-        <v>0.01128632603198472</v>
+        <v>-0.0046461931662380275</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>0.0071288330333847917</v>
+        <v>-0.0030084398252740417</v>
       </c>
       <c r="I6" s="0">
-        <v>0.044940129636972491</v>
+        <v>-0.081531821102629215</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>-0.0084400027762677743</v>
+        <v>0.0031500133320609969</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B7" s="0">
-        <v>0.26302918939590658</v>
+        <v>-0.012104048419394775</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>0.072713206308054279</v>
+        <v>0.19550960474667411</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.020702837859674757</v>
+        <v>-0.011047836818334926</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.043992946462204585</v>
+        <v>-0.12750580890571692</v>
       </c>
       <c r="G7" s="0">
-        <v>0.00043645476374125656</v>
+        <v>0.0057316850967189603</v>
       </c>
       <c r="H7" s="0">
-        <v>-0.00067193752707348441</v>
+        <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>0.00084062580796131386</v>
+        <v>0</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>-0.055607683571360256</v>
+        <v>-0.045808875335240307</v>
       </c>
     </row>
     <row r="8">
